--- a/biology/Médecine/Bouquet_de_Riolan/Bouquet_de_Riolan.xlsx
+++ b/biology/Médecine/Bouquet_de_Riolan/Bouquet_de_Riolan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Le bouquet de Riolan est l'ensemble des ligaments et des tendons issus du processus styloïde de l'os temporal[1]. Il est composé de trois roses rouges (les trois muscles) et de deux roses blanches (les deux ligaments) :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Le bouquet de Riolan est l'ensemble des ligaments et des tendons issus du processus styloïde de l'os temporal. Il est composé de trois roses rouges (les trois muscles) et de deux roses blanches (les deux ligaments) :
 ligament stylo-hyoïdien ;
 ligament stylo-mandibulaire ;
 tendons du muscle stylo-hyoïdien ;
